--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.362097333333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H2">
-        <v>4.086292</v>
+        <v>1.887633</v>
       </c>
       <c r="I2">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J2">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N2">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P2">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q2">
-        <v>0.2800998794968889</v>
+        <v>0.222161190669</v>
       </c>
       <c r="R2">
-        <v>2.520898915472</v>
+        <v>1.999450716021</v>
       </c>
       <c r="S2">
-        <v>8.217591987769319E-05</v>
+        <v>0.0001500186591973383</v>
       </c>
       <c r="T2">
-        <v>8.217591987769317E-05</v>
+        <v>0.0001500186591973383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.362097333333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H3">
-        <v>4.086292</v>
+        <v>1.887633</v>
       </c>
       <c r="I3">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J3">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N3">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P3">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q3">
-        <v>4.052172369864889</v>
+        <v>15.327010524045</v>
       </c>
       <c r="R3">
-        <v>36.469551328784</v>
+        <v>137.943094716405</v>
       </c>
       <c r="S3">
-        <v>0.00118882947252506</v>
+        <v>0.01034986156401425</v>
       </c>
       <c r="T3">
-        <v>0.00118882947252506</v>
+        <v>0.01034986156401425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.362097333333333</v>
+        <v>0.6292110000000001</v>
       </c>
       <c r="H4">
-        <v>4.086292</v>
+        <v>1.887633</v>
       </c>
       <c r="I4">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="J4">
-        <v>0.0196292037450248</v>
+        <v>0.01078649253029594</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N4">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P4">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q4">
-        <v>62.57464661183867</v>
+        <v>0.424441411108</v>
       </c>
       <c r="R4">
-        <v>563.1718195065481</v>
+        <v>3.819972699972</v>
       </c>
       <c r="S4">
-        <v>0.01835819835262205</v>
+        <v>0.0002866123070843506</v>
       </c>
       <c r="T4">
-        <v>0.01835819835262205</v>
+        <v>0.0002866123070843506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>72.17853099999999</v>
       </c>
       <c r="I5">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J5">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N5">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P5">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q5">
-        <v>4.947565625599555</v>
+        <v>8.494907848982999</v>
       </c>
       <c r="R5">
-        <v>44.52809063039599</v>
+        <v>76.454170640847</v>
       </c>
       <c r="S5">
-        <v>0.001451520640312927</v>
+        <v>0.005736351527788248</v>
       </c>
       <c r="T5">
-        <v>0.001451520640312927</v>
+        <v>0.005736351527788248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>72.17853099999999</v>
       </c>
       <c r="I6">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J6">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N6">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P6">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q6">
-        <v>71.57585630582355</v>
+        <v>586.0678978631483</v>
       </c>
       <c r="R6">
-        <v>644.1827067524119</v>
+        <v>5274.611080768334</v>
       </c>
       <c r="S6">
-        <v>0.02099898023351333</v>
+        <v>0.3957537316543581</v>
       </c>
       <c r="T6">
-        <v>0.02099898023351333</v>
+        <v>0.395753731654358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>72.17853099999999</v>
       </c>
       <c r="I7">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="J7">
-        <v>0.3467219403350491</v>
+        <v>0.4124494462002061</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N7">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P7">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q7">
-        <v>1105.292052131038</v>
+        <v>16.22961536980044</v>
       </c>
       <c r="R7">
-        <v>9947.628469179339</v>
+        <v>146.066538328204</v>
       </c>
       <c r="S7">
-        <v>0.3242714394612228</v>
+        <v>0.01095936301805982</v>
       </c>
       <c r="T7">
-        <v>0.3242714394612228</v>
+        <v>0.01095936301805982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.711625</v>
+        <v>16.061552</v>
       </c>
       <c r="H8">
-        <v>44.13487499999999</v>
+        <v>48.184656</v>
       </c>
       <c r="I8">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J8">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N8">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P8">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q8">
-        <v>3.0252789495</v>
+        <v>5.670996718608</v>
       </c>
       <c r="R8">
-        <v>27.2275105455</v>
+        <v>51.03897046747201</v>
       </c>
       <c r="S8">
-        <v>0.0008875586844532899</v>
+        <v>0.003829450686126478</v>
       </c>
       <c r="T8">
-        <v>0.0008875586844532899</v>
+        <v>0.003829450686126477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.711625</v>
+        <v>16.061552</v>
       </c>
       <c r="H9">
-        <v>44.13487499999999</v>
+        <v>48.184656</v>
       </c>
       <c r="I9">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J9">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N9">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P9">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q9">
-        <v>43.7663586015</v>
+        <v>391.2448710154401</v>
       </c>
       <c r="R9">
-        <v>393.8972274134999</v>
+        <v>3521.203839138961</v>
       </c>
       <c r="S9">
-        <v>0.0128402082294191</v>
+        <v>0.2641956985863506</v>
       </c>
       <c r="T9">
-        <v>0.0128402082294191</v>
+        <v>0.2641956985863505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.711625</v>
+        <v>16.061552</v>
       </c>
       <c r="H10">
-        <v>44.13487499999999</v>
+        <v>48.184656</v>
       </c>
       <c r="I10">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488099</v>
       </c>
       <c r="J10">
-        <v>0.2120094338917045</v>
+        <v>0.2753413571488098</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N10">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P10">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q10">
-        <v>675.8509197048749</v>
+        <v>10.83450193252267</v>
       </c>
       <c r="R10">
-        <v>6082.658277343875</v>
+        <v>97.510517392704</v>
       </c>
       <c r="S10">
-        <v>0.1982816669778322</v>
+        <v>0.007316207876332846</v>
       </c>
       <c r="T10">
-        <v>0.1982816669778322</v>
+        <v>0.007316207876332845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.641521</v>
+        <v>1.855556</v>
       </c>
       <c r="H11">
-        <v>4.924563000000001</v>
+        <v>5.566668</v>
       </c>
       <c r="I11">
-        <v>0.02365598211831425</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="J11">
-        <v>0.02365598211831425</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N11">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P11">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q11">
-        <v>0.3375601897453334</v>
+        <v>0.655157856924</v>
       </c>
       <c r="R11">
-        <v>3.038041707708001</v>
+        <v>5.896420712316</v>
       </c>
       <c r="S11">
-        <v>9.90336702616094E-05</v>
+        <v>0.0004424080684946325</v>
       </c>
       <c r="T11">
-        <v>9.903367026160941E-05</v>
+        <v>0.0004424080684946325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.641521</v>
+        <v>1.855556</v>
       </c>
       <c r="H12">
-        <v>4.924563000000001</v>
+        <v>5.566668</v>
       </c>
       <c r="I12">
-        <v>0.02365598211831425</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="J12">
-        <v>0.02365598211831425</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N12">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P12">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q12">
-        <v>4.883443993297334</v>
+        <v>45.19966488182</v>
       </c>
       <c r="R12">
-        <v>43.95099593967601</v>
+        <v>406.79698393638</v>
       </c>
       <c r="S12">
-        <v>0.001432708586098699</v>
+        <v>0.03052195165735504</v>
       </c>
       <c r="T12">
-        <v>0.001432708586098699</v>
+        <v>0.03052195165735504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.641521</v>
+        <v>1.855556</v>
       </c>
       <c r="H13">
-        <v>4.924563000000001</v>
+        <v>5.566668</v>
       </c>
       <c r="I13">
-        <v>0.02365598211831425</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="J13">
-        <v>0.02365598211831425</v>
+        <v>0.03180958523221274</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N13">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O13">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P13">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q13">
-        <v>75.41134834288302</v>
+        <v>1.251686329434667</v>
       </c>
       <c r="R13">
-        <v>678.7021350859471</v>
+        <v>11.265176964912</v>
       </c>
       <c r="S13">
-        <v>0.02212423986195394</v>
+        <v>0.000845225506363063</v>
       </c>
       <c r="T13">
-        <v>0.02212423986195394</v>
+        <v>0.000845225506363063</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.616616</v>
+        <v>15.72740533333333</v>
       </c>
       <c r="H14">
-        <v>82.84984800000001</v>
+        <v>47.182216</v>
       </c>
       <c r="I14">
-        <v>0.3979834399099074</v>
+        <v>0.2696131188884753</v>
       </c>
       <c r="J14">
-        <v>0.3979834399099074</v>
+        <v>0.2696131188884753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2056386666666667</v>
+        <v>0.353079</v>
       </c>
       <c r="N14">
-        <v>0.616916</v>
+        <v>1.059237</v>
       </c>
       <c r="O14">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="P14">
-        <v>0.004186411275012692</v>
+        <v>0.01390801122570493</v>
       </c>
       <c r="Q14">
-        <v>5.679044092085334</v>
+        <v>5.553016547687999</v>
       </c>
       <c r="R14">
-        <v>51.11139682876801</v>
+        <v>49.977148929192</v>
       </c>
       <c r="S14">
-        <v>0.001666122360107173</v>
+        <v>0.003749782284098232</v>
       </c>
       <c r="T14">
-        <v>0.001666122360107173</v>
+        <v>0.003749782284098233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.616616</v>
+        <v>15.72740533333333</v>
       </c>
       <c r="H15">
-        <v>82.84984800000001</v>
+        <v>47.182216</v>
       </c>
       <c r="I15">
-        <v>0.3979834399099074</v>
+        <v>0.2696131188884753</v>
       </c>
       <c r="J15">
-        <v>0.3979834399099074</v>
+        <v>0.2696131188884753</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.974950666666667</v>
+        <v>24.359095</v>
       </c>
       <c r="N15">
-        <v>8.924852</v>
+        <v>73.077285</v>
       </c>
       <c r="O15">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="P15">
-        <v>0.06056432486857137</v>
+        <v>0.9595205795530543</v>
       </c>
       <c r="Q15">
-        <v>82.15807018027733</v>
+        <v>383.1053606181733</v>
       </c>
       <c r="R15">
-        <v>739.4226316224961</v>
+        <v>3447.94824556356</v>
       </c>
       <c r="S15">
-        <v>0.02410359834701518</v>
+        <v>0.2586993360909764</v>
       </c>
       <c r="T15">
-        <v>0.02410359834701518</v>
+        <v>0.2586993360909764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.616616</v>
+        <v>15.72740533333333</v>
       </c>
       <c r="H16">
-        <v>82.84984800000001</v>
+        <v>47.182216</v>
       </c>
       <c r="I16">
-        <v>0.3979834399099074</v>
+        <v>0.2696131188884753</v>
       </c>
       <c r="J16">
-        <v>0.3979834399099074</v>
+        <v>0.2696131188884753</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>45.939923</v>
+        <v>0.6745613333333332</v>
       </c>
       <c r="N16">
-        <v>137.819769</v>
+        <v>2.023684</v>
       </c>
       <c r="O16">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="P16">
-        <v>0.935249263856416</v>
+        <v>0.02657140922124081</v>
       </c>
       <c r="Q16">
-        <v>1268.705212560568</v>
+        <v>10.60909951152711</v>
       </c>
       <c r="R16">
-        <v>11418.34691304511</v>
+        <v>95.48189560374398</v>
       </c>
       <c r="S16">
-        <v>0.3722137192027851</v>
+        <v>0.007164000513400728</v>
       </c>
       <c r="T16">
-        <v>0.3722137192027851</v>
+        <v>0.007164000513400728</v>
       </c>
     </row>
   </sheetData>
